--- a/metadata/2022/hwb_metadata_p5_column_names.xlsx
+++ b/metadata/2022/hwb_metadata_p5_column_names.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s0196a\ADM-Education-NIF Analysis\Health and Wellbeing Survey\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_3B2CAC525C3ACAD144460B43F274D56F37D41A79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD9C1072-1236-44CE-8D24-EB069B0DD00A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14250"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P5" sheetId="1" r:id="rId1"/>
@@ -838,7 +839,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -870,12 +871,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -905,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -916,22 +923,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,44 +1236,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.453125" customWidth="1"/>
     <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="181.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>251</v>
       </c>
     </row>
@@ -1273,22 +1281,22 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -1296,22 +1304,22 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>243</v>
       </c>
     </row>
@@ -1319,19 +1327,19 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1342,19 +1350,19 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1365,19 +1373,19 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>233</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1388,19 +1396,19 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="10" t="s">
         <v>230</v>
       </c>
       <c r="G7" s="1"/>
@@ -1409,19 +1417,19 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>228</v>
       </c>
       <c r="G8" s="1"/>
@@ -1430,19 +1438,19 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>226</v>
       </c>
       <c r="G9" s="1"/>
@@ -1451,19 +1459,19 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>225</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="10" t="s">
         <v>224</v>
       </c>
       <c r="G10" s="1"/>
@@ -1472,19 +1480,19 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>223</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="10" t="s">
         <v>221</v>
       </c>
       <c r="G11" s="1"/>
@@ -1493,19 +1501,19 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>219</v>
       </c>
       <c r="G12" s="1"/>
@@ -1514,19 +1522,19 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>218</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>217</v>
       </c>
       <c r="G13" s="1"/>
@@ -1535,19 +1543,19 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="10" t="s">
         <v>215</v>
       </c>
       <c r="G14" s="1"/>
@@ -1556,19 +1564,19 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>214</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="10" t="s">
         <v>213</v>
       </c>
       <c r="G15" s="1"/>
@@ -1577,19 +1585,19 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>212</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="10" t="s">
         <v>209</v>
       </c>
       <c r="G16" s="1"/>
@@ -1598,19 +1606,19 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G17" s="1"/>
@@ -1619,19 +1627,19 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="10" t="s">
         <v>204</v>
       </c>
       <c r="G18" s="1"/>
@@ -1640,19 +1648,19 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>203</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="10" t="s">
         <v>201</v>
       </c>
       <c r="G19" s="1"/>
@@ -1661,19 +1669,19 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="10" t="s">
         <v>198</v>
       </c>
       <c r="G20" s="1"/>
@@ -1682,19 +1690,19 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="10" t="s">
         <v>196</v>
       </c>
       <c r="G21" s="1"/>
@@ -1703,19 +1711,19 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="10" t="s">
         <v>194</v>
       </c>
       <c r="G22" s="1"/>
@@ -1724,19 +1732,19 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="8" t="s">
         <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G23" s="1"/>
@@ -1745,19 +1753,19 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="8" t="s">
         <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="10" t="s">
         <v>188</v>
       </c>
       <c r="G24" s="1"/>
@@ -1766,19 +1774,19 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="10" t="s">
         <v>186</v>
       </c>
       <c r="G25" s="1"/>
@@ -1787,19 +1795,19 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="10" t="s">
         <v>184</v>
       </c>
       <c r="G26" s="1"/>
@@ -1808,19 +1816,19 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="8" t="s">
         <v>183</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="10" t="s">
         <v>182</v>
       </c>
       <c r="G27" s="1"/>
@@ -1829,19 +1837,19 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="10" t="s">
         <v>180</v>
       </c>
       <c r="G28" s="1"/>
@@ -1850,19 +1858,19 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="10" t="s">
         <v>178</v>
       </c>
       <c r="G29" s="1"/>
@@ -1871,19 +1879,19 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="10" t="s">
         <v>175</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1894,19 +1902,19 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10" t="s">
         <v>172</v>
       </c>
       <c r="G31" s="1"/>
@@ -1915,7 +1923,7 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1927,7 +1935,7 @@
       <c r="E32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="10" t="s">
         <v>170</v>
       </c>
       <c r="G32" s="1"/>
@@ -1936,7 +1944,7 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1948,7 +1956,7 @@
       <c r="E33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="10" t="s">
         <v>167</v>
       </c>
       <c r="G33" s="1"/>
@@ -1957,7 +1965,7 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1969,7 +1977,7 @@
       <c r="E34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="10" t="s">
         <v>165</v>
       </c>
       <c r="G34" s="1"/>
@@ -1978,7 +1986,7 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1990,7 +1998,7 @@
       <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="10" t="s">
         <v>163</v>
       </c>
       <c r="G35" s="1"/>
@@ -1999,7 +2007,7 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2011,7 +2019,7 @@
       <c r="E36" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="10" t="s">
         <v>161</v>
       </c>
       <c r="G36" s="1"/>
@@ -2020,7 +2028,7 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2032,7 +2040,7 @@
       <c r="E37" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="10" t="s">
         <v>159</v>
       </c>
       <c r="G37" s="1"/>
@@ -2041,7 +2049,7 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2053,7 +2061,7 @@
       <c r="E38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="10" t="s">
         <v>157</v>
       </c>
       <c r="G38" s="1"/>
@@ -2062,7 +2070,7 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2074,7 +2082,7 @@
       <c r="E39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="10" t="s">
         <v>155</v>
       </c>
       <c r="G39" s="1"/>
@@ -2083,7 +2091,7 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2095,7 +2103,7 @@
       <c r="E40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="10" t="s">
         <v>153</v>
       </c>
       <c r="G40" s="1"/>
@@ -2104,7 +2112,7 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -2116,7 +2124,7 @@
       <c r="E41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="10" t="s">
         <v>151</v>
       </c>
       <c r="G41" s="1"/>
@@ -2125,7 +2133,7 @@
       <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -2137,7 +2145,7 @@
       <c r="E42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G42" s="1"/>
@@ -2146,7 +2154,7 @@
       <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2158,7 +2166,7 @@
       <c r="E43" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="10" t="s">
         <v>147</v>
       </c>
       <c r="G43" s="1"/>
@@ -2167,7 +2175,7 @@
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2179,7 +2187,7 @@
       <c r="E44" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="10" t="s">
         <v>145</v>
       </c>
       <c r="G44" s="1"/>
@@ -2188,7 +2196,7 @@
       <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -2200,7 +2208,7 @@
       <c r="E45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="10" t="s">
         <v>142</v>
       </c>
       <c r="G45" s="1"/>
@@ -2209,7 +2217,7 @@
       <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2221,7 +2229,7 @@
       <c r="E46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="10" t="s">
         <v>140</v>
       </c>
       <c r="G46" s="1"/>
@@ -2230,7 +2238,7 @@
       <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2242,7 +2250,7 @@
       <c r="E47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="10" t="s">
         <v>136</v>
       </c>
       <c r="G47" s="1"/>
@@ -2251,7 +2259,7 @@
       <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -2263,7 +2271,7 @@
       <c r="E48" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="10" t="s">
         <v>134</v>
       </c>
       <c r="G48" s="1"/>
@@ -2272,7 +2280,7 @@
       <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2284,7 +2292,7 @@
       <c r="E49" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="10" t="s">
         <v>132</v>
       </c>
       <c r="G49" s="1"/>
@@ -2293,7 +2301,7 @@
       <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2305,7 +2313,7 @@
       <c r="E50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G50" s="1"/>
@@ -2314,7 +2322,7 @@
       <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -2326,7 +2334,7 @@
       <c r="E51" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G51" s="1"/>
@@ -2335,7 +2343,7 @@
       <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -2347,7 +2355,7 @@
       <c r="E52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G52" s="1"/>
@@ -2356,7 +2364,7 @@
       <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -2368,7 +2376,7 @@
       <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="10" t="s">
         <v>123</v>
       </c>
       <c r="G53" s="1"/>
@@ -2377,7 +2385,7 @@
       <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2389,7 +2397,7 @@
       <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G54" s="1"/>
@@ -2398,7 +2406,7 @@
       <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2410,7 +2418,7 @@
       <c r="E55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G55" s="1"/>
@@ -2419,7 +2427,7 @@
       <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -2431,7 +2439,7 @@
       <c r="E56" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="10" t="s">
         <v>117</v>
       </c>
       <c r="G56" s="1"/>
@@ -2440,7 +2448,7 @@
       <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -2452,7 +2460,7 @@
       <c r="E57" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="10" t="s">
         <v>115</v>
       </c>
       <c r="G57" s="1"/>
@@ -2461,7 +2469,7 @@
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -2473,7 +2481,7 @@
       <c r="E58" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G58" s="1"/>
@@ -2482,7 +2490,7 @@
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -2494,7 +2502,7 @@
       <c r="E59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="10" t="s">
         <v>109</v>
       </c>
       <c r="G59" s="1"/>
@@ -2503,7 +2511,7 @@
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2515,7 +2523,7 @@
       <c r="E60" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="10" t="s">
         <v>107</v>
       </c>
       <c r="G60" s="1"/>
@@ -2524,7 +2532,7 @@
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2536,7 +2544,7 @@
       <c r="E61" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="10" t="s">
         <v>105</v>
       </c>
       <c r="G61" s="1"/>
@@ -2545,7 +2553,7 @@
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -2557,7 +2565,7 @@
       <c r="E62" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="10" t="s">
         <v>103</v>
       </c>
       <c r="G62" s="1"/>
@@ -2566,7 +2574,7 @@
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2578,7 +2586,7 @@
       <c r="E63" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="10" t="s">
         <v>100</v>
       </c>
       <c r="G63" s="1"/>
@@ -2587,7 +2595,7 @@
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2599,7 +2607,7 @@
       <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="10" t="s">
         <v>98</v>
       </c>
       <c r="G64" s="1"/>
@@ -2608,7 +2616,7 @@
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2620,7 +2628,7 @@
       <c r="E65" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="10" t="s">
         <v>96</v>
       </c>
       <c r="G65" s="1"/>
@@ -2629,7 +2637,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2641,7 +2649,7 @@
       <c r="E66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G66" s="1"/>
@@ -2650,7 +2658,7 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2662,7 +2670,7 @@
       <c r="E67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G67" s="1"/>
@@ -2671,7 +2679,7 @@
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2683,7 +2691,7 @@
       <c r="E68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="10" t="s">
         <v>89</v>
       </c>
       <c r="G68" s="1"/>
@@ -2692,7 +2700,7 @@
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2704,7 +2712,7 @@
       <c r="E69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="10" t="s">
         <v>86</v>
       </c>
       <c r="G69" s="1"/>
@@ -2713,7 +2721,7 @@
       <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2725,7 +2733,7 @@
       <c r="E70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="10" t="s">
         <v>83</v>
       </c>
       <c r="G70" s="1"/>
@@ -2734,7 +2742,7 @@
       <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2746,7 +2754,7 @@
       <c r="E71" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="10" t="s">
         <v>81</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -2757,7 +2765,7 @@
       <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2769,7 +2777,7 @@
       <c r="E72" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="10" t="s">
         <v>78</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -2780,7 +2788,7 @@
       <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2792,7 +2800,7 @@
       <c r="E73" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="10" t="s">
         <v>76</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -2803,7 +2811,7 @@
       <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2815,7 +2823,7 @@
       <c r="E74" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="10" t="s">
         <v>73</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -2826,7 +2834,7 @@
       <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2838,7 +2846,7 @@
       <c r="E75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="10" t="s">
         <v>71</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -2849,7 +2857,7 @@
       <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2861,7 +2869,7 @@
       <c r="E76" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="10" t="s">
         <v>69</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -2872,7 +2880,7 @@
       <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2884,7 +2892,7 @@
       <c r="E77" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -2895,7 +2903,7 @@
       <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2907,7 +2915,7 @@
       <c r="E78" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="10" t="s">
         <v>65</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -2918,7 +2926,7 @@
       <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2930,7 +2938,7 @@
       <c r="E79" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -2941,7 +2949,7 @@
       <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2953,7 +2961,7 @@
       <c r="E80" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="10" t="s">
         <v>61</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -2964,7 +2972,7 @@
       <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2976,7 +2984,7 @@
       <c r="E81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -2987,7 +2995,7 @@
       <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2999,7 +3007,7 @@
       <c r="E82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G82" s="2" t="s">
@@ -3010,7 +3018,7 @@
       <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -3022,7 +3030,7 @@
       <c r="E83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -3033,7 +3041,7 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3045,7 +3053,7 @@
       <c r="E84" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G84" s="1"/>
@@ -3054,7 +3062,7 @@
       <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -3066,7 +3074,7 @@
       <c r="E85" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="10" t="s">
         <v>44</v>
       </c>
       <c r="G85" s="1"/>
@@ -3075,7 +3083,7 @@
       <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -3087,7 +3095,7 @@
       <c r="E86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G86" s="1"/>
@@ -3096,7 +3104,7 @@
       <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -3108,7 +3116,7 @@
       <c r="E87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G87" s="1"/>
@@ -3117,7 +3125,7 @@
       <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -3129,7 +3137,7 @@
       <c r="E88" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="10" t="s">
         <v>37</v>
       </c>
       <c r="G88" s="1"/>
@@ -3138,7 +3146,7 @@
       <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -3150,7 +3158,7 @@
       <c r="E89" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G89" s="1"/>
@@ -3159,7 +3167,7 @@
       <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -3171,7 +3179,7 @@
       <c r="E90" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G90" s="1"/>
@@ -3180,7 +3188,7 @@
       <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -3192,7 +3200,7 @@
       <c r="E91" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G91" s="1"/>
@@ -3201,7 +3209,7 @@
       <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C92" s="2" t="s">
@@ -3213,7 +3221,7 @@
       <c r="E92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="1"/>
@@ -3222,7 +3230,7 @@
       <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -3234,7 +3242,7 @@
       <c r="E93" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G93" s="1"/>
@@ -3243,7 +3251,7 @@
       <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -3255,7 +3263,7 @@
       <c r="E94" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G94" s="1"/>
@@ -3264,7 +3272,7 @@
       <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C95" s="2" t="s">
@@ -3276,7 +3284,7 @@
       <c r="E95" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G95" s="1"/>
@@ -3285,7 +3293,7 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C96" s="2" t="s">
@@ -3297,7 +3305,7 @@
       <c r="E96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F96" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G96" s="1"/>
@@ -3306,7 +3314,7 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3318,7 +3326,7 @@
       <c r="E97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G97" s="1"/>
@@ -3327,7 +3335,7 @@
       <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C98" s="2" t="s">
@@ -3339,7 +3347,7 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="1"/>
@@ -3348,7 +3356,7 @@
       <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3360,7 +3368,7 @@
       <c r="E99" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="10" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="1"/>
@@ -3369,7 +3377,7 @@
       <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -3381,7 +3389,7 @@
       <c r="E100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="1"/>
@@ -3390,7 +3398,7 @@
       <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3402,7 +3410,7 @@
       <c r="E101" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="1"/>
@@ -3411,7 +3419,7 @@
       <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="2" t="s">
@@ -3423,7 +3431,7 @@
       <c r="E102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G102" s="1"/>
@@ -3432,7 +3440,7 @@
       <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="2" t="s">
@@ -3444,19 +3452,19 @@
       <c r="E103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="10" t="s">
         <v>0</v>
       </c>
       <c r="G103" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3 A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39 A41 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71 A73 A75 A77 A79 A81 A83 A85 A87 A89 A91 A93 A95 A97 A99 A101 A103">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2 A4 A6 A8 A10 A12 A14 A16 A18 A20 A22 A24 A26 A28 A30 A32 A34 A36 A38 A40 A42 A44 A46 A48 A50 A52 A54 A56 A58 A60 A62 A64 A66 A68 A70 A72 A74 A76 A78 A80 A82 A84 A86 A88 A90 A92 A94 A96 A98 A100 A102">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="FALSE">
+  <conditionalFormatting sqref="A3 A5 A7 A9 A11 A13 A15 A17 A19 A21 A23 A25 A27 A29 A31 A33 A35 A37 A39 A41 A43 A45 A47 A49 A51 A53 A55 A57 A59 A61 A63 A65 A67 A69 A71 A73 A75 A77 A79 A81 A83 A85 A87 A89 A91 A93 A95 A97 A99 A101 A103">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",#REF!)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/metadata/2022/hwb_metadata_p5_column_names.xlsx
+++ b/metadata/2022/hwb_metadata_p5_column_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://scotsconnect-my.sharepoint.com/personal/victoria_dunn_gov_scot/Documents/Git Repos/HWB Rap Project/hwb-census/metadata/2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3B2CAC525C3ACAD144460B43F274D56F37D41A79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD9C1072-1236-44CE-8D24-EB069B0DD00A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_3B2CAC525C3ACAD144460B43F274D56F37D41A79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66340280-F841-4612-A862-6547738ED297}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28740" yWindow="-16470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P5" sheetId="1" r:id="rId1"/>
@@ -871,18 +871,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -932,14 +926,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -972,6 +966,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
